--- a/Help/scheduler.xlsx
+++ b/Help/scheduler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\trading\Lazy trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6208AC1-A4E0-4B8D-86CF-BAA98B89EDD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7F11E-F646-4A4B-93B2-21D41B22A801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{870E9370-24A8-4B80-B186-0334FA72D0BA}"/>
   </bookViews>
@@ -69,12 +69,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>4 hours</t>
-  </si>
-  <si>
-    <t>190 min</t>
-  </si>
-  <si>
     <t>project</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>MT_TradeTriggerRL.R</t>
   </si>
   <si>
-    <t>every 30 minutes, after 03_ScoreData.R</t>
-  </si>
-  <si>
     <t>TradeControlRL.R</t>
   </si>
   <si>
@@ -229,6 +220,15 @@
   </si>
   <si>
     <t>90 min</t>
+  </si>
+  <si>
+    <t>7 hours</t>
+  </si>
+  <si>
+    <t>onc e a day</t>
+  </si>
+  <si>
+    <t>every 05 minutes, after 03_ScoreData.R</t>
   </si>
 </sst>
 </file>
@@ -299,10 +299,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -635,7 +634,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -656,10 +655,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -677,304 +676,304 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="C11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:G14" xr:uid="{055E2C5A-733D-4978-8EEC-D4645C732EE2}"/>

--- a/Help/scheduler.xlsx
+++ b/Help/scheduler.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\trading\Lazy trading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\trading\Git\DSS\Help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7F11E-F646-4A4B-93B2-21D41B22A801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B13AB69-FCBA-4577-B76D-D440F2B20ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{870E9370-24A8-4B80-B186-0334FA72D0BA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$14</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Files name</t>
   </si>
@@ -45,12 +45,6 @@
     <t>1 hour</t>
   </si>
   <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>Mon to Fri</t>
-  </si>
-  <si>
     <t>02_ForceModelUpdate.R</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>03_TestBuildTestModel.R</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>project</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>economicCalendarTrigger,R</t>
   </si>
   <si>
-    <t xml:space="preserve">once a day </t>
-  </si>
-  <si>
     <t>download Calendar</t>
   </si>
   <si>
@@ -168,9 +156,6 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>search the control parameter</t>
   </si>
   <si>
@@ -225,10 +210,16 @@
     <t>7 hours</t>
   </si>
   <si>
-    <t>onc e a day</t>
-  </si>
-  <si>
     <t>every 05 minutes, after 03_ScoreData.R</t>
+  </si>
+  <si>
+    <t>once a day</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>scheduler</t>
   </si>
 </sst>
 </file>
@@ -299,19 +290,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEBB6E1-62ED-4DFC-8EA8-4569E984CB2B}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -644,24 +630,29 @@
     <col min="4" max="4" width="25.2265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.1328125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="F1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -670,54 +661,42 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -726,254 +705,202 @@
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A6" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A7" s="2" t="s">
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A12" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:G14" xr:uid="{055E2C5A-733D-4978-8EEC-D4645C732EE2}"/>
